--- a/MLS_prices-order.xlsx
+++ b/MLS_prices-order.xlsx
@@ -984,7 +984,7 @@
         <v>70.69</v>
       </c>
       <c r="F2" s="2">
-        <v>89.59</v>
+        <v>92.89</v>
       </c>
       <c r="G2" s="2">
         <v>74.70999999999999</v>
@@ -1115,10 +1115,10 @@
         <v>40.75</v>
       </c>
       <c r="F9" s="3">
-        <v>39.39</v>
+        <v>37.5</v>
       </c>
       <c r="G9" s="3">
-        <v>28.04</v>
+        <v>28.11</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>140</v>
@@ -1183,10 +1183,10 @@
         <v>29.25</v>
       </c>
       <c r="F13" s="3">
-        <v>28.45</v>
+        <v>24.98</v>
       </c>
       <c r="G13" s="3">
-        <v>27.73</v>
+        <v>25.82</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>141</v>
@@ -1209,7 +1209,7 @@
         <v>45.75</v>
       </c>
       <c r="G14" s="2">
-        <v>48.15</v>
+        <v>45.04</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>141</v>
@@ -1257,7 +1257,7 @@
         <v>41.99</v>
       </c>
       <c r="G17" s="3">
-        <v>33.15</v>
+        <v>34.7</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>161</v>
@@ -1305,7 +1305,7 @@
         <v>1.34</v>
       </c>
       <c r="G20" s="2">
-        <v>6.44</v>
+        <v>6.42</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>162</v>
@@ -1319,10 +1319,10 @@
         <v>29</v>
       </c>
       <c r="F21" s="3">
-        <v>59.18</v>
+        <v>67.45</v>
       </c>
       <c r="G21" s="3">
-        <v>47.73</v>
+        <v>51.47</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>156</v>
@@ -1336,10 +1336,10 @@
         <v>30</v>
       </c>
       <c r="F22" s="2">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="G22" s="2">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>163</v>
@@ -1353,10 +1353,10 @@
         <v>31</v>
       </c>
       <c r="F23" s="3">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="G23" s="3">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>142</v>
@@ -1384,7 +1384,7 @@
         <v>1.95</v>
       </c>
       <c r="F25" s="3">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>143</v>
@@ -1398,7 +1398,7 @@
         <v>34</v>
       </c>
       <c r="F26" s="2">
-        <v>23.84</v>
+        <v>29.49</v>
       </c>
       <c r="G26" s="2">
         <v>17.29</v>
@@ -1415,7 +1415,7 @@
         <v>35</v>
       </c>
       <c r="F27" s="3">
-        <v>21.69</v>
+        <v>21.45</v>
       </c>
       <c r="G27" s="3">
         <v>15.43</v>
@@ -1469,7 +1469,7 @@
         <v>38</v>
       </c>
       <c r="G30" s="2">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>147</v>
@@ -1483,10 +1483,10 @@
         <v>39</v>
       </c>
       <c r="F31" s="3">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="G31" s="3">
-        <v>1.61</v>
+        <v>1.3</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>147</v>
@@ -1500,7 +1500,7 @@
         <v>40</v>
       </c>
       <c r="G32" s="2">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>147</v>
@@ -1514,10 +1514,10 @@
         <v>41</v>
       </c>
       <c r="F33" s="3">
-        <v>2.31</v>
+        <v>1.47</v>
       </c>
       <c r="G33" s="3">
-        <v>1.38</v>
+        <v>0.97</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>147</v>
@@ -1534,10 +1534,10 @@
         <v>23.27</v>
       </c>
       <c r="F34" s="2">
-        <v>36.15</v>
+        <v>29.85</v>
       </c>
       <c r="G34" s="2">
-        <v>26.5</v>
+        <v>20.53</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>147</v>
@@ -1574,10 +1574,10 @@
         <v>1.31</v>
       </c>
       <c r="F36" s="2">
-        <v>20.35</v>
+        <v>19.29</v>
       </c>
       <c r="G36" s="2">
-        <v>16.55</v>
+        <v>16.49</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>145</v>
@@ -1594,7 +1594,7 @@
         <v>42.55</v>
       </c>
       <c r="G37" s="3">
-        <v>29.97</v>
+        <v>30.11</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>160</v>
@@ -1611,7 +1611,7 @@
         <v>49.19</v>
       </c>
       <c r="G38" s="2">
-        <v>29.46</v>
+        <v>29.59</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>145</v>
@@ -1625,10 +1625,10 @@
         <v>47</v>
       </c>
       <c r="F39" s="3">
-        <v>18.88</v>
+        <v>29.85</v>
       </c>
       <c r="G39" s="3">
-        <v>28.87</v>
+        <v>28.83</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>145</v>
@@ -1729,7 +1729,7 @@
         <v>54</v>
       </c>
       <c r="F46" s="2">
-        <v>78.12</v>
+        <v>89.69</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>145</v>
@@ -1754,7 +1754,7 @@
         <v>56</v>
       </c>
       <c r="G48" s="2">
-        <v>13.23</v>
+        <v>13.21</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>156</v>
@@ -1797,7 +1797,7 @@
         <v>6.99</v>
       </c>
       <c r="G50" s="2">
-        <v>5.36</v>
+        <v>5.83</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>150</v>
@@ -1817,7 +1817,7 @@
         <v>46.95</v>
       </c>
       <c r="G51" s="3">
-        <v>51.38</v>
+        <v>49.92</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>150</v>
@@ -1848,7 +1848,7 @@
         <v>20.96</v>
       </c>
       <c r="G53" s="3">
-        <v>20.61</v>
+        <v>20.74</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>164</v>
@@ -1865,7 +1865,7 @@
         <v>5.79</v>
       </c>
       <c r="G54" s="2">
-        <v>17.54</v>
+        <v>17.58</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>164</v>
@@ -1907,7 +1907,7 @@
         <v>65</v>
       </c>
       <c r="F57" s="3">
-        <v>23.89</v>
+        <v>21.38</v>
       </c>
       <c r="G57" s="3">
         <v>31.48</v>
@@ -2062,7 +2062,7 @@
         <v>33.75</v>
       </c>
       <c r="G67" s="3">
-        <v>51.41</v>
+        <v>58.54</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>164</v>
@@ -2107,7 +2107,7 @@
         <v>45.39</v>
       </c>
       <c r="G70" s="2">
-        <v>42.46</v>
+        <v>41.23</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>160</v>
@@ -2180,7 +2180,7 @@
         <v>25.55</v>
       </c>
       <c r="G75" s="3">
-        <v>27.35</v>
+        <v>31.39</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>164</v>
@@ -2295,7 +2295,7 @@
         <v>31.79</v>
       </c>
       <c r="G83" s="3">
-        <v>51.39</v>
+        <v>51.11</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>145</v>
@@ -2337,10 +2337,10 @@
         <v>0.87</v>
       </c>
       <c r="F86" s="2">
-        <v>30.35</v>
+        <v>35.65</v>
       </c>
       <c r="G86" s="2">
-        <v>45.94</v>
+        <v>46.02</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>165</v>
@@ -2357,7 +2357,7 @@
         <v>0.75</v>
       </c>
       <c r="G87" s="3">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>164</v>
@@ -2374,7 +2374,7 @@
         <v>1.35</v>
       </c>
       <c r="G88" s="2">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>164</v>
@@ -2388,7 +2388,7 @@
         <v>97</v>
       </c>
       <c r="G89" s="3">
-        <v>38.6</v>
+        <v>39.87</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>143</v>
@@ -2405,10 +2405,10 @@
         <v>0.15</v>
       </c>
       <c r="F90" s="2">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G90" s="2">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>145</v>
@@ -2473,7 +2473,7 @@
         <v>43.79</v>
       </c>
       <c r="G94" s="2">
-        <v>47.7</v>
+        <v>47.67</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>145</v>
@@ -2493,7 +2493,7 @@
         <v>3.75</v>
       </c>
       <c r="G95" s="3">
-        <v>18.89</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="2" customFormat="1">
@@ -2507,7 +2507,7 @@
         <v>5.69</v>
       </c>
       <c r="G96" s="2">
-        <v>19.38</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="3" customFormat="1">
@@ -2540,7 +2540,7 @@
         <v>11.99</v>
       </c>
       <c r="G99" s="3">
-        <v>13.92</v>
+        <v>13.96</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>160</v>
@@ -2554,7 +2554,7 @@
         <v>108</v>
       </c>
       <c r="F100" s="2">
-        <v>23.89</v>
+        <v>21.38</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>145</v>
@@ -2571,7 +2571,7 @@
         <v>20.39</v>
       </c>
       <c r="G101" s="3">
-        <v>20.42</v>
+        <v>20.5</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>145</v>
@@ -2588,7 +2588,7 @@
         <v>15.5</v>
       </c>
       <c r="G102" s="2">
-        <v>18.7</v>
+        <v>18.16</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>150</v>
@@ -2605,7 +2605,7 @@
         <v>27.15</v>
       </c>
       <c r="G103" s="3">
-        <v>20.38</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="2" customFormat="1">
@@ -2619,7 +2619,7 @@
         <v>54.25</v>
       </c>
       <c r="G104" s="2">
-        <v>40.14</v>
+        <v>34.48</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="3" customFormat="1">
@@ -2655,7 +2655,7 @@
         <v>0.27</v>
       </c>
       <c r="G107" s="3">
-        <v>39.48</v>
+        <v>38.67</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>160</v>
@@ -2801,7 +2801,7 @@
         <v>32.95</v>
       </c>
       <c r="G117" s="3">
-        <v>36.25</v>
+        <v>36.28</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>164</v>
@@ -2815,10 +2815,10 @@
         <v>126</v>
       </c>
       <c r="F118" s="2">
-        <v>28.15</v>
+        <v>30.35</v>
       </c>
       <c r="G118" s="2">
-        <v>27.77</v>
+        <v>28.6</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>145</v>
@@ -2832,10 +2832,10 @@
         <v>127</v>
       </c>
       <c r="F119" s="3">
-        <v>23.25</v>
+        <v>25.65</v>
       </c>
       <c r="G119" s="3">
-        <v>23.21</v>
+        <v>23.91</v>
       </c>
       <c r="K119" s="3" t="s">
         <v>145</v>
@@ -2849,10 +2849,10 @@
         <v>128</v>
       </c>
       <c r="F120" s="2">
-        <v>27.79</v>
+        <v>30.65</v>
       </c>
       <c r="G120" s="2">
-        <v>29</v>
+        <v>29.86</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>164</v>
@@ -2869,7 +2869,7 @@
         <v>10.99</v>
       </c>
       <c r="G121" s="3">
-        <v>12.02</v>
+        <v>12.01</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>145</v>
@@ -2999,7 +2999,7 @@
         <v>70.69</v>
       </c>
       <c r="F2" s="2">
-        <v>89.59</v>
+        <v>92.89</v>
       </c>
       <c r="G2" s="2">
         <v>74.70999999999999</v>
@@ -3270,7 +3270,7 @@
         <v>43.79</v>
       </c>
       <c r="G16" s="2">
-        <v>47.7</v>
+        <v>47.67</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>102</v>
@@ -3369,10 +3369,10 @@
         <v>40.75</v>
       </c>
       <c r="F22" s="2">
-        <v>39.39</v>
+        <v>37.5</v>
       </c>
       <c r="G22" s="2">
-        <v>28.04</v>
+        <v>28.11</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1">
@@ -3386,10 +3386,10 @@
         <v>29.25</v>
       </c>
       <c r="F23" s="3">
-        <v>28.45</v>
+        <v>24.98</v>
       </c>
       <c r="G23" s="3">
-        <v>27.73</v>
+        <v>25.82</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1">
@@ -3406,7 +3406,7 @@
         <v>45.75</v>
       </c>
       <c r="G24" s="2">
-        <v>48.15</v>
+        <v>45.04</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1">
@@ -3423,7 +3423,7 @@
         <v>6.99</v>
       </c>
       <c r="G25" s="3">
-        <v>5.36</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1">
@@ -3589,10 +3589,10 @@
         <v>0.15</v>
       </c>
       <c r="F6" s="2">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G6" s="2">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>98</v>
@@ -3612,7 +3612,7 @@
         <v>5.69</v>
       </c>
       <c r="G7" s="3">
-        <v>19.38</v>
+        <v>22.68</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>104</v>
@@ -3646,7 +3646,7 @@
         <v>0.27</v>
       </c>
       <c r="G9" s="3">
-        <v>39.48</v>
+        <v>38.67</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>115</v>
@@ -3706,7 +3706,7 @@
         <v>10.99</v>
       </c>
       <c r="G12" s="2">
-        <v>12.02</v>
+        <v>12.01</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>129</v>
@@ -3729,10 +3729,10 @@
         <v>1.31</v>
       </c>
       <c r="F13" s="3">
-        <v>20.35</v>
+        <v>19.29</v>
       </c>
       <c r="G13" s="3">
-        <v>16.55</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1">
@@ -3749,7 +3749,7 @@
         <v>3.75</v>
       </c>
       <c r="G14" s="2">
-        <v>18.89</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1"/>
@@ -3830,7 +3830,7 @@
         <v>1.34</v>
       </c>
       <c r="G2" s="2">
-        <v>6.44</v>
+        <v>6.42</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -3864,7 +3864,7 @@
         <v>1.95</v>
       </c>
       <c r="F4" s="2">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -3895,131 +3895,128 @@
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.59</v>
       </c>
       <c r="E6" s="2">
-        <v>23.27</v>
+        <v>1.31</v>
       </c>
       <c r="F6" s="2">
-        <v>36.15</v>
+        <v>19.29</v>
       </c>
       <c r="G6" s="2">
-        <v>26.5</v>
+        <v>16.49</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>147</v>
+        <v>44</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="1">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6.59</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3">
-        <v>1.31</v>
-      </c>
-      <c r="F7" s="3">
-        <v>20.35</v>
-      </c>
-      <c r="G7" s="3">
-        <v>16.55</v>
+        <v>9.23</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1">
       <c r="A8" s="1">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2">
-        <v>9.23</v>
+        <v>21.57</v>
+      </c>
+      <c r="F8" s="2">
+        <v>35.85</v>
+      </c>
+      <c r="G8" s="2">
+        <v>31.67</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1">
       <c r="A9" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3">
-        <v>21.57</v>
+        <v>36.05</v>
       </c>
       <c r="F9" s="3">
-        <v>35.85</v>
+        <v>46.95</v>
       </c>
       <c r="G9" s="3">
-        <v>31.67</v>
+        <v>49.92</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1">
       <c r="A10" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2">
-        <v>36.05</v>
-      </c>
-      <c r="F10" s="2">
-        <v>46.95</v>
-      </c>
-      <c r="G10" s="2">
-        <v>51.38</v>
+        <v>18.37</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1">
       <c r="A11" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3">
-        <v>18.37</v>
+        <v>5.79</v>
+      </c>
+      <c r="G11" s="3">
+        <v>17.58</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>164</v>
@@ -4027,19 +4024,19 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1">
       <c r="A12" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2">
-        <v>5.79</v>
+        <v>21.99</v>
       </c>
       <c r="G12" s="2">
-        <v>17.54</v>
+        <v>22.29</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>164</v>
@@ -4047,19 +4044,16 @@
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1">
       <c r="A13" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3">
-        <v>21.99</v>
-      </c>
-      <c r="G13" s="3">
-        <v>22.29</v>
+        <v>42.1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>164</v>
@@ -4067,53 +4061,53 @@
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1">
       <c r="A14" s="1">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2">
-        <v>42.1</v>
+        <v>29.05</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1">
       <c r="A15" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3">
-        <v>29.05</v>
+        <v>33.75</v>
+      </c>
+      <c r="G15" s="3">
+        <v>58.54</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1">
       <c r="A16" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2">
-        <v>33.75</v>
-      </c>
-      <c r="G16" s="2">
-        <v>51.41</v>
+        <v>32.97</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>164</v>
@@ -4121,33 +4115,33 @@
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1">
       <c r="A17" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E17" s="3">
-        <v>32.97</v>
+        <v>14.88</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1">
       <c r="A18" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2">
-        <v>14.88</v>
+        <v>18.59</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>156</v>
@@ -4155,16 +4149,16 @@
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1">
       <c r="A19" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19" s="3">
-        <v>18.59</v>
+        <v>23.44</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>156</v>
@@ -4172,144 +4166,144 @@
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1">
       <c r="A20" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2">
-        <v>23.44</v>
+        <v>56.92</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1">
       <c r="A21" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3">
-        <v>56.92</v>
+        <v>53.64</v>
+      </c>
+      <c r="G21" s="3">
+        <v>85.08</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1">
       <c r="A22" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E22" s="2">
-        <v>53.64</v>
+        <v>0.87</v>
+      </c>
+      <c r="F22" s="2">
+        <v>35.65</v>
       </c>
       <c r="G22" s="2">
-        <v>85.08</v>
+        <v>46.02</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1">
       <c r="A23" s="1">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4.99</v>
       </c>
       <c r="E23" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="F23" s="3">
-        <v>30.35</v>
+        <v>3.75</v>
       </c>
       <c r="G23" s="3">
-        <v>45.94</v>
+        <v>19.9</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1">
       <c r="A24" s="1">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="2">
-        <v>4.99</v>
+        <v>130</v>
       </c>
       <c r="E24" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="G24" s="2">
-        <v>18.89</v>
+        <v>32.26</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1">
       <c r="A25" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" s="3">
-        <v>32.26</v>
+        <v>0.22</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1">
       <c r="A26" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2">
-        <v>0.22</v>
+        <v>3.86</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1">
       <c r="A27" s="1">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="E27" s="3">
-        <v>3.86</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>133</v>
+        <v>23.27</v>
+      </c>
+      <c r="F27" s="3">
+        <v>29.85</v>
+      </c>
+      <c r="G27" s="3">
+        <v>20.53</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1">
@@ -4337,7 +4331,7 @@
         <v>20.96</v>
       </c>
       <c r="G29" s="3">
-        <v>20.61</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1">
@@ -4486,153 +4480,150 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3">
-        <v>48.45</v>
+        <v>29.25</v>
       </c>
       <c r="F5" s="3">
-        <v>45.75</v>
+        <v>24.98</v>
       </c>
       <c r="G5" s="3">
-        <v>48.15</v>
+        <v>25.82</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>141</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1">
       <c r="A6" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.1</v>
       </c>
       <c r="F6" s="2">
-        <v>18.88</v>
-      </c>
-      <c r="G6" s="2">
-        <v>28.87</v>
+        <v>6.72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="3">
-        <v>8.1</v>
+        <v>52</v>
       </c>
       <c r="F7" s="3">
-        <v>6.72</v>
+        <v>35.39</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1">
       <c r="A8" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2">
-        <v>35.39</v>
+        <v>89.69</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1">
       <c r="A9" s="1">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F9" s="3">
-        <v>78.12</v>
+        <v>0.31</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2">
-        <v>0.31</v>
+        <v>21.38</v>
+      </c>
+      <c r="G10" s="2">
+        <v>31.48</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="E11" s="3">
+        <v>47.5</v>
       </c>
       <c r="F11" s="3">
-        <v>23.89</v>
-      </c>
-      <c r="G11" s="3">
-        <v>31.48</v>
+        <v>0.16</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1">
       <c r="A12" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="2">
-        <v>47.5</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>164</v>
@@ -4640,36 +4631,36 @@
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F13" s="3">
-        <v>0.24</v>
+        <v>18.95</v>
+      </c>
+      <c r="G13" s="3">
+        <v>23.02</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1">
       <c r="A14" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="2">
-        <v>18.95</v>
-      </c>
-      <c r="G14" s="2">
-        <v>23.02</v>
+        <v>25.59</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>160</v>
@@ -4677,16 +4668,16 @@
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1">
       <c r="A15" s="1">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F15" s="3">
-        <v>25.59</v>
+        <v>40.59</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>160</v>
@@ -4694,53 +4685,53 @@
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1">
       <c r="A16" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2">
-        <v>40.59</v>
+        <v>25.55</v>
+      </c>
+      <c r="G16" s="2">
+        <v>31.39</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1">
       <c r="A17" s="1">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F17" s="3">
-        <v>25.55</v>
-      </c>
-      <c r="G17" s="3">
-        <v>27.35</v>
+        <v>29.44</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1">
       <c r="A18" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2">
-        <v>29.44</v>
+        <v>45.79</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>160</v>
@@ -4748,36 +4739,39 @@
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1">
       <c r="A19" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" s="3">
-        <v>45.79</v>
+        <v>31.79</v>
+      </c>
+      <c r="G19" s="3">
+        <v>51.11</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1">
       <c r="A20" s="1">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F20" s="2">
-        <v>31.79</v>
+        <v>0.06</v>
       </c>
       <c r="G20" s="2">
-        <v>51.39</v>
+        <v>0.21</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>145</v>
@@ -4785,70 +4779,70 @@
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1">
       <c r="A21" s="1">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F21" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.21</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1">
       <c r="A22" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F22" s="2">
-        <v>75.84999999999999</v>
+        <v>11.99</v>
+      </c>
+      <c r="G22" s="2">
+        <v>13.96</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1">
       <c r="A23" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F23" s="3">
-        <v>11.99</v>
-      </c>
-      <c r="G23" s="3">
-        <v>13.92</v>
+        <v>21.38</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1">
       <c r="A24" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F24" s="2">
-        <v>23.89</v>
+        <v>20.39</v>
+      </c>
+      <c r="G24" s="2">
+        <v>20.5</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>145</v>
@@ -4856,656 +4850,644 @@
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1">
       <c r="A25" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F25" s="3">
-        <v>20.39</v>
+        <v>15.5</v>
       </c>
       <c r="G25" s="3">
-        <v>20.42</v>
+        <v>18.16</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1">
       <c r="A26" s="1">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F26" s="2">
-        <v>15.5</v>
+        <v>32.95</v>
       </c>
       <c r="G26" s="2">
-        <v>18.7</v>
+        <v>36.28</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1">
       <c r="A27" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>125</v>
+        <v>10</v>
+      </c>
+      <c r="C27" s="3">
+        <v>70.69</v>
       </c>
       <c r="F27" s="3">
-        <v>32.95</v>
+        <v>92.89</v>
       </c>
       <c r="G27" s="3">
-        <v>36.25</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>164</v>
+        <v>74.70999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1">
       <c r="A28" s="1">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>13</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7.82</v>
       </c>
       <c r="F28" s="2">
-        <v>27.79</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="G28" s="2">
-        <v>29</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>164</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1">
       <c r="A29" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3">
-        <v>70.69</v>
+        <v>40.75</v>
       </c>
       <c r="F29" s="3">
-        <v>89.59</v>
+        <v>37.5</v>
       </c>
       <c r="G29" s="3">
-        <v>74.70999999999999</v>
+        <v>28.11</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1">
       <c r="A30" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>7.82</v>
+        <v>48.45</v>
       </c>
       <c r="F30" s="2">
-        <v>8.279999999999999</v>
+        <v>45.75</v>
       </c>
       <c r="G30" s="2">
-        <v>8.44</v>
+        <v>45.04</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1">
       <c r="A31" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="3">
-        <v>40.75</v>
+        <v>25</v>
       </c>
       <c r="F31" s="3">
-        <v>39.39</v>
+        <v>41.99</v>
       </c>
       <c r="G31" s="3">
-        <v>28.04</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1">
       <c r="A32" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
-        <v>29.25</v>
+        <v>25.05</v>
       </c>
       <c r="F32" s="2">
-        <v>28.45</v>
-      </c>
-      <c r="G32" s="2">
-        <v>27.73</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1">
       <c r="A33" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F33" s="3">
-        <v>41.99</v>
+        <v>67.45</v>
       </c>
       <c r="G33" s="3">
-        <v>33.15</v>
+        <v>51.47</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1">
       <c r="A34" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="2">
-        <v>25.05</v>
+        <v>30</v>
       </c>
       <c r="F34" s="2">
-        <v>41.63</v>
+        <v>0.38</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.23</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1">
       <c r="A35" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F35" s="3">
-        <v>59.18</v>
+        <v>0.31</v>
       </c>
       <c r="G35" s="3">
-        <v>47.73</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1">
       <c r="A36" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.95</v>
       </c>
       <c r="F36" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.22</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="3" customFormat="1">
       <c r="A37" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F37" s="3">
-        <v>0.3</v>
+        <v>29.49</v>
       </c>
       <c r="G37" s="3">
-        <v>0.17</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1">
       <c r="A38" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1.95</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2">
-        <v>2.8</v>
+        <v>21.45</v>
+      </c>
+      <c r="G38" s="2">
+        <v>15.43</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="3" customFormat="1">
       <c r="A39" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C39" s="3">
+        <v>53.78</v>
       </c>
       <c r="F39" s="3">
-        <v>23.84</v>
+        <v>55.58</v>
       </c>
       <c r="G39" s="3">
-        <v>17.29</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1">
       <c r="A40" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="E40" s="2">
+        <v>15.94</v>
       </c>
       <c r="F40" s="2">
-        <v>21.69</v>
-      </c>
-      <c r="G40" s="2">
-        <v>15.43</v>
+        <v>29.69</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="3" customFormat="1">
       <c r="A41" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="3">
-        <v>53.78</v>
+        <v>39</v>
       </c>
       <c r="F41" s="3">
-        <v>55.58</v>
+        <v>1.61</v>
       </c>
       <c r="G41" s="3">
-        <v>73.56</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1">
       <c r="A42" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="2">
-        <v>15.94</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2">
-        <v>29.69</v>
+        <v>1.47</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.97</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="3" customFormat="1">
       <c r="A43" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="E43" s="3">
+        <v>23.27</v>
       </c>
       <c r="F43" s="3">
-        <v>1.81</v>
+        <v>29.85</v>
       </c>
       <c r="G43" s="3">
-        <v>1.61</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1">
       <c r="A44" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2">
-        <v>2.31</v>
+        <v>26.75</v>
       </c>
       <c r="G44" s="2">
-        <v>1.38</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="3" customFormat="1">
       <c r="A45" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D45" s="3">
+        <v>6.59</v>
       </c>
       <c r="E45" s="3">
-        <v>23.27</v>
+        <v>1.31</v>
       </c>
       <c r="F45" s="3">
-        <v>36.15</v>
+        <v>19.29</v>
       </c>
       <c r="G45" s="3">
-        <v>26.5</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1">
       <c r="A46" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2">
-        <v>26.75</v>
+        <v>42.55</v>
       </c>
       <c r="G46" s="2">
-        <v>16.06</v>
+        <v>30.11</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="3" customFormat="1">
       <c r="A47" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="3">
-        <v>6.59</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1.31</v>
+        <v>46</v>
       </c>
       <c r="F47" s="3">
-        <v>20.35</v>
+        <v>49.19</v>
       </c>
       <c r="G47" s="3">
-        <v>16.55</v>
+        <v>29.59</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1">
       <c r="A48" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2">
-        <v>42.55</v>
+        <v>29.85</v>
       </c>
       <c r="G48" s="2">
-        <v>29.97</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="3" customFormat="1">
       <c r="A49" s="1">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="E49" s="3">
+        <v>21.57</v>
       </c>
       <c r="F49" s="3">
-        <v>49.19</v>
+        <v>35.85</v>
       </c>
       <c r="G49" s="3">
-        <v>29.46</v>
+        <v>31.67</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1">
       <c r="A50" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" s="2">
-        <v>21.57</v>
+        <v>58</v>
+      </c>
+      <c r="C50" s="2">
+        <v>6.85</v>
       </c>
       <c r="F50" s="2">
-        <v>35.85</v>
+        <v>6.99</v>
       </c>
       <c r="G50" s="2">
-        <v>31.67</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="3" customFormat="1">
       <c r="A51" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="3">
-        <v>6.85</v>
+        <v>59</v>
+      </c>
+      <c r="E51" s="3">
+        <v>36.05</v>
       </c>
       <c r="F51" s="3">
-        <v>6.99</v>
+        <v>46.95</v>
       </c>
       <c r="G51" s="3">
-        <v>5.36</v>
+        <v>49.92</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1">
       <c r="A52" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="2">
-        <v>36.05</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2">
-        <v>46.95</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="G52" s="2">
-        <v>51.38</v>
+        <v>59.98</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="3" customFormat="1">
       <c r="A53" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="D53" s="3">
+        <v>18.26</v>
       </c>
       <c r="F53" s="3">
-        <v>68.34999999999999</v>
-      </c>
-      <c r="G53" s="3">
-        <v>59.98</v>
+        <v>82.98999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1">
       <c r="A54" s="1">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="2">
-        <v>18.26</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2">
-        <v>82.98999999999999</v>
+        <v>45.39</v>
+      </c>
+      <c r="G54" s="2">
+        <v>41.23</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="3" customFormat="1">
       <c r="A55" s="1">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>78</v>
+        <v>94</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.87</v>
       </c>
       <c r="F55" s="3">
-        <v>45.39</v>
+        <v>35.65</v>
       </c>
       <c r="G55" s="3">
-        <v>42.46</v>
+        <v>46.02</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1">
       <c r="A56" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0.87</v>
+        <v>95</v>
       </c>
       <c r="F56" s="2">
-        <v>30.35</v>
+        <v>0.75</v>
       </c>
       <c r="G56" s="2">
-        <v>45.94</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="3" customFormat="1">
       <c r="A57" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F57" s="3">
-        <v>0.75</v>
+        <v>1.35</v>
       </c>
       <c r="G57" s="3">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1">
       <c r="A58" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.15</v>
       </c>
       <c r="F58" s="2">
-        <v>1.35</v>
+        <v>0.18</v>
       </c>
       <c r="G58" s="2">
-        <v>0.54</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="3" customFormat="1">
       <c r="A59" s="1">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0.15</v>
+        <v>111</v>
       </c>
       <c r="F59" s="3">
-        <v>0.19</v>
+        <v>27.15</v>
       </c>
       <c r="G59" s="3">
-        <v>0.18</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1">
       <c r="A60" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F60" s="2">
-        <v>27.15</v>
+        <v>54.25</v>
       </c>
       <c r="G60" s="2">
-        <v>20.38</v>
+        <v>34.48</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="3" customFormat="1">
       <c r="A61" s="1">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.24</v>
       </c>
       <c r="F61" s="3">
-        <v>54.25</v>
+        <v>0.27</v>
       </c>
       <c r="G61" s="3">
-        <v>40.14</v>
+        <v>38.67</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1">
       <c r="A62" s="1">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" s="2">
-        <v>0.24</v>
+        <v>118</v>
       </c>
       <c r="F62" s="2">
-        <v>0.27</v>
+        <v>0.77</v>
       </c>
       <c r="G62" s="2">
-        <v>39.48</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="3" customFormat="1">
       <c r="A63" s="1">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F63" s="3">
-        <v>0.77</v>
+        <v>0.43</v>
       </c>
       <c r="G63" s="3">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1">
       <c r="A64" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F64" s="2">
-        <v>0.43</v>
+        <v>30.35</v>
       </c>
       <c r="G64" s="2">
-        <v>0.33</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="3" customFormat="1">
       <c r="A65" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F65" s="3">
-        <v>28.15</v>
+        <v>25.65</v>
       </c>
       <c r="G65" s="3">
-        <v>27.77</v>
+        <v>23.91</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1">
       <c r="A66" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F66" s="2">
-        <v>23.25</v>
+        <v>30.65</v>
       </c>
       <c r="G66" s="2">
-        <v>23.21</v>
+        <v>29.86</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="3" customFormat="1"/>
@@ -5586,10 +5568,10 @@
         <v>40.75</v>
       </c>
       <c r="F2" s="2">
-        <v>39.39</v>
+        <v>37.5</v>
       </c>
       <c r="G2" s="2">
-        <v>28.04</v>
+        <v>28.11</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
@@ -5603,28 +5585,28 @@
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3">
-        <v>29.25</v>
+        <v>48.45</v>
       </c>
       <c r="F3" s="3">
-        <v>28.45</v>
+        <v>45.75</v>
       </c>
       <c r="G3" s="3">
-        <v>27.73</v>
+        <v>45.04</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>141</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1">
@@ -5638,7 +5620,7 @@
         <v>41.99</v>
       </c>
       <c r="G4" s="2">
-        <v>33.15</v>
+        <v>34.7</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>25</v>
@@ -5655,10 +5637,10 @@
         <v>29</v>
       </c>
       <c r="F5" s="3">
-        <v>59.18</v>
+        <v>67.45</v>
       </c>
       <c r="G5" s="3">
-        <v>47.73</v>
+        <v>51.47</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>29</v>
@@ -5675,10 +5657,10 @@
         <v>30</v>
       </c>
       <c r="F6" s="2">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="G6" s="2">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>30</v>
@@ -5695,10 +5677,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="G7" s="3">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>31</v>
@@ -5715,7 +5697,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="2">
-        <v>23.84</v>
+        <v>29.49</v>
       </c>
       <c r="G8" s="2">
         <v>17.29</v>
@@ -5735,7 +5717,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="3">
-        <v>21.69</v>
+        <v>21.45</v>
       </c>
       <c r="G9" s="3">
         <v>15.43</v>
@@ -5755,7 +5737,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="2">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>38</v>
@@ -5772,10 +5754,10 @@
         <v>39</v>
       </c>
       <c r="F11" s="3">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="G11" s="3">
-        <v>1.61</v>
+        <v>1.3</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>39</v>
@@ -5792,7 +5774,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="2">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>40</v>
@@ -5809,10 +5791,10 @@
         <v>41</v>
       </c>
       <c r="F13" s="3">
-        <v>2.31</v>
+        <v>1.47</v>
       </c>
       <c r="G13" s="3">
-        <v>1.38</v>
+        <v>0.97</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>41</v>
@@ -5823,916 +5805,934 @@
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1">
       <c r="A14" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E14" s="2">
+        <v>23.27</v>
       </c>
       <c r="F14" s="2">
-        <v>26.75</v>
+        <v>29.85</v>
       </c>
       <c r="G14" s="2">
-        <v>16.06</v>
+        <v>20.53</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1">
       <c r="A15" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3">
-        <v>42.55</v>
+        <v>26.75</v>
       </c>
       <c r="G15" s="3">
-        <v>29.97</v>
+        <v>16.06</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>160</v>
+        <v>43</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1">
       <c r="A16" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2">
-        <v>49.19</v>
+        <v>42.55</v>
       </c>
       <c r="G16" s="2">
-        <v>29.46</v>
+        <v>30.11</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1">
       <c r="A17" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="F17" s="3">
+        <v>49.19</v>
       </c>
       <c r="G17" s="3">
-        <v>72.51000000000001</v>
+        <v>29.59</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1">
       <c r="A18" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="F18" s="2">
+        <v>29.85</v>
       </c>
       <c r="G18" s="2">
-        <v>35.86</v>
+        <v>28.83</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1">
       <c r="A19" s="1">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G19" s="3">
-        <v>13.23</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1">
       <c r="A20" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2">
-        <v>6.85</v>
-      </c>
-      <c r="F20" s="2">
-        <v>6.99</v>
+        <v>50</v>
       </c>
       <c r="G20" s="2">
-        <v>5.36</v>
+        <v>35.86</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1">
       <c r="A21" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="3">
-        <v>20.96</v>
+        <v>56</v>
       </c>
       <c r="G21" s="3">
-        <v>20.61</v>
+        <v>13.21</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1">
       <c r="A22" s="1">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6.85</v>
       </c>
       <c r="F22" s="2">
-        <v>68.34999999999999</v>
+        <v>6.99</v>
       </c>
       <c r="G22" s="2">
-        <v>59.98</v>
+        <v>5.83</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>164</v>
+        <v>58</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1">
       <c r="A23" s="1">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20.96</v>
       </c>
       <c r="G23" s="3">
-        <v>45.61</v>
+        <v>20.74</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1">
       <c r="A24" s="1">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F24" s="2">
-        <v>45.39</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="G24" s="2">
-        <v>42.46</v>
+        <v>59.98</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1">
       <c r="A25" s="1">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.75</v>
+        <v>77</v>
       </c>
       <c r="G25" s="3">
-        <v>0.27</v>
+        <v>45.61</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1">
       <c r="A26" s="1">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="F26" s="2">
-        <v>1.35</v>
+        <v>45.39</v>
       </c>
       <c r="G26" s="2">
-        <v>0.54</v>
+        <v>41.23</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1">
       <c r="A27" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.75</v>
       </c>
       <c r="G27" s="3">
-        <v>38.6</v>
+        <v>0.26</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>143</v>
+        <v>95</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1">
       <c r="A28" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="2">
-        <v>29.25</v>
+        <v>96</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.35</v>
       </c>
       <c r="G28" s="2">
-        <v>26</v>
+        <v>0.55</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1">
       <c r="A29" s="1">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="3">
-        <v>27.15</v>
+        <v>97</v>
       </c>
       <c r="G29" s="3">
-        <v>20.38</v>
+        <v>39.87</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1">
       <c r="A30" s="1">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="2">
-        <v>54.25</v>
+        <v>100</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29.25</v>
       </c>
       <c r="G30" s="2">
-        <v>40.14</v>
+        <v>26</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1">
       <c r="A31" s="1">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F31" s="3">
-        <v>0.77</v>
+        <v>27.15</v>
       </c>
       <c r="G31" s="3">
-        <v>0.54</v>
+        <v>20.39</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1">
       <c r="A32" s="1">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F32" s="2">
-        <v>0.43</v>
+        <v>54.25</v>
       </c>
       <c r="G32" s="2">
-        <v>0.33</v>
+        <v>34.48</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1">
       <c r="A33" s="1">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F33" s="3">
-        <v>28.15</v>
+        <v>0.77</v>
       </c>
       <c r="G33" s="3">
-        <v>27.77</v>
+        <v>0.54</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1">
       <c r="A34" s="1">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F34" s="2">
-        <v>23.25</v>
+        <v>0.43</v>
       </c>
       <c r="G34" s="2">
-        <v>23.21</v>
+        <v>0.33</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1">
       <c r="A35" s="1">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="3">
-        <v>70.69</v>
+        <v>126</v>
       </c>
       <c r="F35" s="3">
-        <v>89.59</v>
+        <v>30.35</v>
       </c>
       <c r="G35" s="3">
-        <v>74.70999999999999</v>
+        <v>28.6</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1">
       <c r="A36" s="1">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="2">
-        <v>7.82</v>
+        <v>127</v>
       </c>
       <c r="F36" s="2">
-        <v>8.279999999999999</v>
+        <v>25.65</v>
       </c>
       <c r="G36" s="2">
-        <v>8.44</v>
+        <v>23.91</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="3" customFormat="1">
       <c r="A37" s="1">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F37" s="3">
-        <v>28.95</v>
+        <v>30.65</v>
       </c>
       <c r="G37" s="3">
-        <v>35.65</v>
+        <v>29.86</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1">
       <c r="A38" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2">
-        <v>71.75</v>
+        <v>70.69</v>
+      </c>
+      <c r="F38" s="2">
+        <v>92.89</v>
       </c>
       <c r="G38" s="2">
-        <v>73.06</v>
+        <v>74.70999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="3" customFormat="1">
       <c r="A39" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C39" s="3">
-        <v>48.45</v>
+        <v>7.82</v>
       </c>
       <c r="F39" s="3">
-        <v>45.75</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="G39" s="3">
-        <v>48.15</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1">
       <c r="A40" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1.34</v>
+        <v>14</v>
+      </c>
+      <c r="F40" s="2">
+        <v>28.95</v>
       </c>
       <c r="G40" s="2">
-        <v>6.44</v>
+        <v>35.65</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="3" customFormat="1">
       <c r="A41" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C41" s="3">
-        <v>53.78</v>
-      </c>
-      <c r="F41" s="3">
-        <v>55.58</v>
+        <v>71.75</v>
       </c>
       <c r="G41" s="3">
-        <v>73.56</v>
+        <v>73.06</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="2" customFormat="1">
       <c r="A42" s="1">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="2">
-        <v>23.27</v>
+        <v>21</v>
+      </c>
+      <c r="C42" s="2">
+        <v>29.25</v>
       </c>
       <c r="F42" s="2">
-        <v>36.15</v>
+        <v>24.98</v>
       </c>
       <c r="G42" s="2">
-        <v>26.5</v>
+        <v>25.82</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="3" customFormat="1">
       <c r="A43" s="1">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="3">
-        <v>6.59</v>
+        <v>28</v>
       </c>
       <c r="E43" s="3">
-        <v>1.31</v>
-      </c>
-      <c r="F43" s="3">
-        <v>20.35</v>
+        <v>1.34</v>
       </c>
       <c r="G43" s="3">
-        <v>16.55</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1">
       <c r="A44" s="1">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="C44" s="2">
+        <v>53.78</v>
       </c>
       <c r="F44" s="2">
-        <v>18.88</v>
+        <v>55.58</v>
       </c>
       <c r="G44" s="2">
-        <v>28.87</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="3" customFormat="1">
       <c r="A45" s="1">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="D45" s="3">
+        <v>6.59</v>
       </c>
       <c r="E45" s="3">
-        <v>21.57</v>
+        <v>1.31</v>
       </c>
       <c r="F45" s="3">
-        <v>35.85</v>
+        <v>19.29</v>
       </c>
       <c r="G45" s="3">
-        <v>31.67</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1">
       <c r="A46" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2">
-        <v>36.05</v>
+        <v>21.57</v>
       </c>
       <c r="F46" s="2">
-        <v>46.95</v>
+        <v>35.85</v>
       </c>
       <c r="G46" s="2">
-        <v>51.38</v>
+        <v>31.67</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="3" customFormat="1">
       <c r="A47" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E47" s="3">
-        <v>5.79</v>
+        <v>36.05</v>
+      </c>
+      <c r="F47" s="3">
+        <v>46.95</v>
       </c>
       <c r="G47" s="3">
-        <v>17.54</v>
+        <v>49.92</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1">
       <c r="A48" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" s="2">
-        <v>21.99</v>
+        <v>5.79</v>
       </c>
       <c r="G48" s="2">
-        <v>22.29</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="3" customFormat="1">
       <c r="A49" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="3">
-        <v>23.89</v>
+        <v>63</v>
+      </c>
+      <c r="E49" s="3">
+        <v>21.99</v>
       </c>
       <c r="G49" s="3">
-        <v>31.48</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1">
       <c r="A50" s="1">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2">
-        <v>18.95</v>
+        <v>21.38</v>
       </c>
       <c r="G50" s="2">
-        <v>23.02</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="3" customFormat="1">
       <c r="A51" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="3">
-        <v>33.75</v>
+        <v>72</v>
+      </c>
+      <c r="F51" s="3">
+        <v>18.95</v>
       </c>
       <c r="G51" s="3">
-        <v>51.41</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="2" customFormat="1">
       <c r="A52" s="1">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="2">
-        <v>25.55</v>
+        <v>75</v>
+      </c>
+      <c r="E52" s="2">
+        <v>33.75</v>
       </c>
       <c r="G52" s="2">
-        <v>27.35</v>
+        <v>58.54</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="3" customFormat="1">
       <c r="A53" s="1">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="3">
-        <v>53.64</v>
+        <v>83</v>
+      </c>
+      <c r="F53" s="3">
+        <v>25.55</v>
       </c>
       <c r="G53" s="3">
-        <v>85.08</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="2" customFormat="1">
       <c r="A54" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="2">
-        <v>31.79</v>
+        <v>88</v>
+      </c>
+      <c r="E54" s="2">
+        <v>53.64</v>
       </c>
       <c r="G54" s="2">
-        <v>51.39</v>
+        <v>85.08</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="3" customFormat="1">
       <c r="A55" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0.87</v>
+        <v>91</v>
       </c>
       <c r="F55" s="3">
-        <v>30.35</v>
+        <v>31.79</v>
       </c>
       <c r="G55" s="3">
-        <v>45.94</v>
+        <v>51.11</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1">
       <c r="A56" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0.15</v>
+        <v>94</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.87</v>
       </c>
       <c r="F56" s="2">
-        <v>0.19</v>
+        <v>35.65</v>
       </c>
       <c r="G56" s="2">
-        <v>0.18</v>
+        <v>46.02</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="3" customFormat="1">
       <c r="A57" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.15</v>
       </c>
       <c r="F57" s="3">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="G57" s="3">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="2" customFormat="1">
       <c r="A58" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="2">
-        <v>43.79</v>
+        <v>99</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.06</v>
       </c>
       <c r="G58" s="2">
-        <v>47.7</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="3" customFormat="1">
       <c r="A59" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="E59" s="3">
-        <v>3.75</v>
+        <v>102</v>
+      </c>
+      <c r="C59" s="3">
+        <v>43.79</v>
       </c>
       <c r="G59" s="3">
-        <v>18.89</v>
+        <v>47.67</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1">
       <c r="A60" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D60" s="2">
-        <v>5.69</v>
+        <v>4.99</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3.75</v>
       </c>
       <c r="G60" s="2">
-        <v>19.38</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="3" customFormat="1">
       <c r="A61" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F61" s="3">
-        <v>11.99</v>
+        <v>104</v>
+      </c>
+      <c r="D61" s="3">
+        <v>5.69</v>
       </c>
       <c r="G61" s="3">
-        <v>13.92</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1">
       <c r="A62" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F62" s="2">
-        <v>20.39</v>
+        <v>11.99</v>
       </c>
       <c r="G62" s="2">
-        <v>20.42</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="3" customFormat="1">
       <c r="A63" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F63" s="3">
-        <v>15.5</v>
+        <v>20.39</v>
       </c>
       <c r="G63" s="3">
-        <v>18.7</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1">
       <c r="A64" s="1">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="2">
-        <v>0.24</v>
+        <v>110</v>
       </c>
       <c r="F64" s="2">
-        <v>0.27</v>
+        <v>15.5</v>
       </c>
       <c r="G64" s="2">
-        <v>39.48</v>
+        <v>18.16</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="3" customFormat="1">
       <c r="A65" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D65" s="3">
-        <v>8.890000000000001</v>
+        <v>0.24</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.27</v>
       </c>
       <c r="G65" s="3">
-        <v>32.84</v>
+        <v>38.67</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1">
       <c r="A66" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D66" s="2">
-        <v>0.11</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G66" s="2">
-        <v>0.17</v>
+        <v>32.84</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="3" customFormat="1">
       <c r="A67" s="1">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F67" s="3">
-        <v>32.95</v>
+        <v>117</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.11</v>
       </c>
       <c r="G67" s="3">
-        <v>36.25</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="2" customFormat="1">
       <c r="A68" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F68" s="2">
-        <v>27.79</v>
+        <v>32.95</v>
       </c>
       <c r="G68" s="2">
-        <v>29</v>
+        <v>36.28</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="3" customFormat="1">
@@ -6746,7 +6746,7 @@
         <v>10.99</v>
       </c>
       <c r="G69" s="3">
-        <v>12.02</v>
+        <v>12.01</v>
       </c>
     </row>
   </sheetData>
